--- a/inst/extdata/example_data_text.xlsx
+++ b/inst/extdata/example_data_text.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/85304spe_eur_nl/Documents/Documents/mhqol/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F844377FC3574AFC124848E5AAEAC0011471A05A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC622595-7424-4757-9E57-AD2D2703BE40}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -284,13 +292,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +307,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -318,19 +325,348 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -359,12 +695,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -391,12 +727,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -423,12 +759,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -455,12 +791,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.0</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -487,12 +823,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>5.0</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -519,12 +855,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>6.0</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -551,12 +887,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
-        <v>7.0</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
@@ -583,12 +919,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
-        <v>8.0</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -615,12 +951,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
-        <v>9.0</v>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -647,12 +983,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="n">
-        <v>10.0</v>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -679,12 +1015,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="n">
-        <v>11.0</v>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -711,12 +1047,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="n">
-        <v>12.0</v>
+      <c r="B13">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -743,12 +1079,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="n">
-        <v>13.0</v>
+      <c r="B14">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -775,12 +1111,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="n">
-        <v>14.0</v>
+      <c r="B15">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -807,12 +1143,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
-        <v>15.0</v>
+      <c r="B16">
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
@@ -839,12 +1175,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="n">
-        <v>16.0</v>
+      <c r="B17">
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -871,12 +1207,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="n">
-        <v>17.0</v>
+      <c r="B18">
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -903,12 +1239,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>18.0</v>
+      <c r="B19">
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -935,12 +1271,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="n">
-        <v>19.0</v>
+      <c r="B20">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -967,12 +1303,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
-        <v>20.0</v>
+      <c r="B21">
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -999,12 +1335,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="n">
-        <v>21.0</v>
+      <c r="B22">
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
@@ -1031,12 +1367,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="n">
-        <v>22.0</v>
+      <c r="B23">
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -1063,12 +1399,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="n">
-        <v>23.0</v>
+      <c r="B24">
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -1095,12 +1431,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="n">
-        <v>24.0</v>
+      <c r="B25">
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -1127,12 +1463,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="n">
-        <v>25.0</v>
+      <c r="B26">
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
@@ -1159,12 +1495,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="n">
-        <v>26.0</v>
+      <c r="B27">
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -1191,12 +1527,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="n">
-        <v>27.0</v>
+      <c r="B28">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -1223,12 +1559,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="n">
-        <v>28.0</v>
+      <c r="B29">
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -1255,12 +1591,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="n">
-        <v>29.0</v>
+      <c r="B30">
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
@@ -1287,12 +1623,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="n">
-        <v>30.0</v>
+      <c r="B31">
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -1319,12 +1655,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="n">
-        <v>31.0</v>
+      <c r="B32">
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
@@ -1351,12 +1687,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="n">
-        <v>32.0</v>
+      <c r="B33">
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -1383,12 +1719,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="n">
-        <v>33.0</v>
+      <c r="B34">
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -1415,12 +1751,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="n">
-        <v>34.0</v>
+      <c r="B35">
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>59</v>
@@ -1447,12 +1783,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="n">
-        <v>35.0</v>
+      <c r="B36">
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>59</v>
@@ -1479,12 +1815,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="n">
-        <v>36.0</v>
+      <c r="B37">
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
@@ -1511,12 +1847,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="n">
-        <v>37.0</v>
+      <c r="B38">
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>60</v>
@@ -1543,12 +1879,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="n">
-        <v>38.0</v>
+      <c r="B39">
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>60</v>
@@ -1575,12 +1911,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="n">
-        <v>39.0</v>
+      <c r="B40">
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
@@ -1607,12 +1943,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="n">
-        <v>40.0</v>
+      <c r="B41">
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -1639,12 +1975,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="n">
-        <v>41.0</v>
+      <c r="B42">
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>59</v>
@@ -1671,12 +2007,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="n">
-        <v>42.0</v>
+      <c r="B43">
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>60</v>
@@ -1703,12 +2039,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="n">
-        <v>43.0</v>
+      <c r="B44">
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -1735,12 +2071,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="n">
-        <v>44.0</v>
+      <c r="B45">
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -1767,12 +2103,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="n">
-        <v>45.0</v>
+      <c r="B46">
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
@@ -1799,12 +2135,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="n">
-        <v>46.0</v>
+      <c r="B47">
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -1831,12 +2167,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="B48" t="n">
-        <v>47.0</v>
+      <c r="B48">
+        <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
@@ -1863,12 +2199,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="n">
-        <v>48.0</v>
+      <c r="B49">
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
@@ -1895,12 +2231,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" t="n">
-        <v>49.0</v>
+      <c r="B50">
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
@@ -1927,12 +2263,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B51" t="n">
-        <v>50.0</v>
+      <c r="B51">
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
@@ -1960,6 +2296,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/example_data_text.xlsx
+++ b/inst/extdata/example_data_text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/85304spe_eur_nl/Documents/Documents/mhqol/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F844377FC3574AFC124848E5AAEAC0011471A05A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC622595-7424-4757-9E57-AD2D2703BE40}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F844377FC3574AFC124848E5AAEAC0011471A05A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52A8B67B-3B1B-4DB2-AD1C-F6A0170DE650}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <t>I am very gloomy about my future</t>
   </si>
   <si>
-    <t>I am gloomy about my	future</t>
+    <t>I am gloomy about my future</t>
   </si>
 </sst>
 </file>
@@ -660,11 +660,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="76.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
